--- a/cleaned/helios_mutual_fund_portfolio.xlsx
+++ b/cleaned/helios_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,12 +511,12 @@
           <t>INE002A01018</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>177704</t>
@@ -512,22 +527,25 @@
           <t>2248.13</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2248.13</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -544,12 +562,12 @@
           <t>INE040A01034</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>108775</t>
@@ -560,22 +578,25 @@
           <t>1847.82</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1847.82</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -592,12 +613,12 @@
           <t>INE030A01027</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>43200</t>
@@ -608,22 +629,25 @@
           <t>1066.52</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1066.52</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -640,12 +664,12 @@
           <t>INE090A01021</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>77910</t>
@@ -656,22 +680,25 @@
           <t>976.06</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>976.06</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -688,12 +715,12 @@
           <t>INE467B01029</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>21098</t>
@@ -704,22 +731,25 @@
           <t>867.63</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>867.63</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -736,12 +766,12 @@
           <t>INE795G01014</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>124716</t>
@@ -752,22 +782,25 @@
           <t>795.75</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>795.75</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -784,12 +817,12 @@
           <t>INE009A01021</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>38078</t>
@@ -800,22 +833,25 @@
           <t>715.79</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>715.79</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -832,12 +868,12 @@
           <t>INE237A01028</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>35200</t>
@@ -848,22 +884,25 @@
           <t>669.26</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>669.26</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -880,12 +919,12 @@
           <t>INE028A01039</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>301275</t>
@@ -896,22 +935,25 @@
           <t>642.89</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>642.89</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -928,12 +970,12 @@
           <t>INE742F01042</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Transport Infrastructure</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>51879</t>
@@ -944,22 +986,25 @@
           <t>570.33</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>570.33</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -976,12 +1021,12 @@
           <t>INE982J01020</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Financial Technology (Fintech)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>70015</t>
@@ -992,22 +1037,25 @@
           <t>543.14</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>543.14</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1024,12 +1072,12 @@
           <t>INE647O01011</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>195000</t>
@@ -1040,22 +1088,25 @@
           <t>534.01</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>534.01</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1072,12 +1123,12 @@
           <t>INE423A01024</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>22500</t>
@@ -1088,22 +1139,25 @@
           <t>514.76</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>514.76</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1120,12 +1174,12 @@
           <t>INE0DK501011</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>219711</t>
@@ -1136,22 +1190,25 @@
           <t>511.71</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>511.71</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1168,12 +1225,12 @@
           <t>INE758T01015</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>227962</t>
@@ -1184,22 +1241,25 @@
           <t>502.31</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>502.31</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1216,12 +1276,12 @@
           <t>INE397D01024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>30095</t>
@@ -1232,22 +1292,25 @@
           <t>489.43</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>489.43</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1264,12 +1327,12 @@
           <t>INE062A01020</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>62502</t>
@@ -1280,22 +1343,25 @@
           <t>483.08</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>483.08</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1312,12 +1378,12 @@
           <t>INE04I401011</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>32370</t>
@@ -1328,22 +1394,25 @@
           <t>456.16</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>456.16</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1360,12 +1429,12 @@
           <t>INE296A01024</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>5628</t>
@@ -1376,22 +1445,25 @@
           <t>443.77</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>443.77</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1408,12 +1480,12 @@
           <t>INE271C01023</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Realty</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>59546</t>
@@ -1424,22 +1496,25 @@
           <t>443.65</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>443.65</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1456,12 +1531,12 @@
           <t>INE200M01039</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>73105</t>
@@ -1472,22 +1547,25 @@
           <t>392.39</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>392.39</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1504,12 +1582,12 @@
           <t>INE591G01017</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>4678</t>
@@ -1520,22 +1598,25 @@
           <t>386.58</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>386.58</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1552,12 +1633,12 @@
           <t>INE860A01027</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>22271</t>
@@ -1568,22 +1649,25 @@
           <t>384.27</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>384.27</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1600,12 +1684,12 @@
           <t>INE053A01029</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>49327</t>
@@ -1616,22 +1700,25 @@
           <t>377.2</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>377.2</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1648,12 +1735,12 @@
           <t>INE263A01024</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>127108</t>
@@ -1664,22 +1751,25 @@
           <t>371.98</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>371.98</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1696,12 +1786,12 @@
           <t>INE065X01017</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>59561</t>
@@ -1712,22 +1802,25 @@
           <t>357.19</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>357.19</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1744,12 +1837,12 @@
           <t>INE733E01010</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>106246</t>
@@ -1760,22 +1853,25 @@
           <t>344.24</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>344.24</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1792,12 +1888,12 @@
           <t>INE00H001014</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>82287</t>
@@ -1808,22 +1904,25 @@
           <t>342.4</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>342.4</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1840,12 +1939,12 @@
           <t>INE572E01012</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>38754</t>
@@ -1856,22 +1955,25 @@
           <t>340.34</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>340.34</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1888,12 +1990,12 @@
           <t>INE020B01018</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>75497</t>
@@ -1904,22 +2006,25 @@
           <t>339.62</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>339.62</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1936,12 +2041,12 @@
           <t>INE417T01026</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Financial Technology (Fintech)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>15136</t>
@@ -1952,22 +2057,25 @@
           <t>261.37</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>261.37</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -1984,12 +2092,12 @@
           <t>INE685A01028</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>7962</t>
@@ -2000,22 +2108,25 @@
           <t>260.29</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>260.29</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2032,12 +2143,12 @@
           <t>INE671A01010</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Industrial Manufacturing</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>628</t>
@@ -2048,22 +2159,25 @@
           <t>254.17</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>254.17</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2080,12 +2194,12 @@
           <t>INE079A01024</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>46800</t>
@@ -2096,22 +2210,25 @@
           <t>239.99</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>239.99</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2128,12 +2245,12 @@
           <t>INE970X01018</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>172402</t>
@@ -2144,22 +2261,25 @@
           <t>234.81</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>234.81</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2176,12 +2296,12 @@
           <t>INE127D01025</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>5456</t>
@@ -2192,22 +2312,25 @@
           <t>211.14</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>211.14</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2224,12 +2347,12 @@
           <t>INE466L01038</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>20075</t>
@@ -2240,22 +2363,25 @@
           <t>202.31</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>202.31</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2272,12 +2398,12 @@
           <t>INE765G01017</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>10685</t>
@@ -2288,22 +2414,25 @@
           <t>198.58</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>198.58</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2320,12 +2449,12 @@
           <t>INE646L01027</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>4500</t>
@@ -2336,22 +2465,25 @@
           <t>194.6</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>194.6</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2368,12 +2500,12 @@
           <t>INE721A01047</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>34260</t>
@@ -2384,22 +2516,25 @@
           <t>186.29</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>186.29</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2416,12 +2551,12 @@
           <t>INE153T01027</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>40399</t>
@@ -2432,22 +2567,25 @@
           <t>176.24</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>176.24</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2464,12 +2602,12 @@
           <t>INE494B01023</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>7000</t>
@@ -2480,22 +2618,25 @@
           <t>172.05</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>172.05</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2512,12 +2653,12 @@
           <t>INE437A01024</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>2493</t>
@@ -2528,22 +2669,25 @@
           <t>169.79</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>169.79</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2560,12 +2704,12 @@
           <t>INE066F01020</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>4270</t>
@@ -2576,22 +2720,25 @@
           <t>168.1</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>168.1</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2608,12 +2755,12 @@
           <t>INE752E01010</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>54503</t>
@@ -2624,22 +2771,25 @@
           <t>164.41</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>164.41</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2656,12 +2806,12 @@
           <t>INE121A01024</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>12235</t>
@@ -2672,22 +2822,25 @@
           <t>157.32</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>157.32</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2704,12 +2857,12 @@
           <t>INE931S01010</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>20875</t>
@@ -2720,22 +2873,25 @@
           <t>156.22</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>156.22</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2752,12 +2908,12 @@
           <t>INE338I01027</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>23891</t>
@@ -2768,22 +2924,25 @@
           <t>152.22</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>152.22</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2800,12 +2959,12 @@
           <t>INE115A01026</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>24000</t>
@@ -2816,22 +2975,25 @@
           <t>143.54</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>143.54</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2848,12 +3010,12 @@
           <t>INE059A01026</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>9100</t>
@@ -2864,22 +3026,25 @@
           <t>134.63</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>134.63</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2896,12 +3061,12 @@
           <t>INE211B01039</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Realty</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>7136</t>
@@ -2912,22 +3077,25 @@
           <t>117.16</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>117.16</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2944,12 +3112,12 @@
           <t>INE061F01013</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>14139</t>
@@ -2960,22 +3128,25 @@
           <t>90.52</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -2992,12 +3163,12 @@
           <t>INE02YR01019</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>49275</t>
@@ -3008,22 +3179,25 @@
           <t>72.38</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3040,12 +3214,12 @@
           <t>IN0020230010</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>500000</t>
@@ -3056,22 +3230,25 @@
           <t>517.09</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>517.09</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Central Government Securities          </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.06726683676242828</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Central Government Securities   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3088,12 +3265,12 @@
           <t>INE160A16QQ4</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>100</t>
@@ -3104,22 +3281,25 @@
           <t>494.66</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>494.66</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposits          </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.07299900054931641</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Certificate of Deposits   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3136,12 +3316,12 @@
           <t>IN002024Z057</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>500000</t>
@@ -3152,22 +3332,25 @@
           <t>492.1</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>492.1</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bills          </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0651479959487915</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Treasury Bills   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3184,12 +3367,12 @@
           <t>IN002024Z065</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>500000</t>
@@ -3200,22 +3383,25 @@
           <t>491.49</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>491.49</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bills          </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.06579999625682831</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Treasury Bills   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3232,12 +3418,12 @@
           <t>IN002024Y340</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>500000</t>
@@ -3248,22 +3434,25 @@
           <t>489.07</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>489.07</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bills          </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.06580599397420883</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Treasury Bills   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3280,12 +3469,12 @@
           <t>IN002024Z149</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>500000</t>
@@ -3296,22 +3485,25 @@
           <t>486.6</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>486.6</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bills          </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>HBAF</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.06612999737262726</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Treasury Bills   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>HBAF</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3328,12 +3520,12 @@
           <t>INE040A01034</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>175194</t>
@@ -3344,22 +3536,25 @@
           <t>2976.11</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2976.11</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3376,12 +3571,12 @@
           <t>INE090A01021</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>126813</t>
@@ -3392,22 +3587,25 @@
           <t>1588.71</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>1588.71</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3424,12 +3622,12 @@
           <t>INE296A01024</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>11604</t>
@@ -3440,22 +3638,25 @@
           <t>914.99</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>914.99</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3472,12 +3673,12 @@
           <t>INE062A01020</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>114061</t>
@@ -3488,22 +3689,25 @@
           <t>881.58</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>881.58</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3520,12 +3724,12 @@
           <t>INE982J01020</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Financial Technology (Fintech)</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>96762</t>
@@ -3536,22 +3740,25 @@
           <t>750.63</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>750.63</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3568,12 +3775,12 @@
           <t>INE572E01012</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>81316</t>
@@ -3584,22 +3791,25 @@
           <t>714.12</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>714.12</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3616,12 +3826,12 @@
           <t>INE020B01018</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>149980</t>
@@ -3632,22 +3842,25 @@
           <t>674.69</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>674.69</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3664,12 +3877,12 @@
           <t>INE123W01016</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>43297</t>
@@ -3680,22 +3893,25 @@
           <t>642.35</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>642.35</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3712,12 +3928,12 @@
           <t>INE127D01025</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>14678</t>
@@ -3728,22 +3944,25 @@
           <t>568.02</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>568.02</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3760,12 +3979,12 @@
           <t>INE417T01026</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
         <is>
           <t>Financial Technology (Fintech)</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>30831</t>
@@ -3776,22 +3995,25 @@
           <t>532.39</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>532.39</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3808,12 +4030,12 @@
           <t>INE745G01035</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>8988</t>
@@ -3824,22 +4046,25 @@
           <t>515.28</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>515.28</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3856,12 +4081,12 @@
           <t>INE00F201020</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>22693</t>
@@ -3872,22 +4097,25 @@
           <t>461.12</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>461.12</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3904,12 +4132,12 @@
           <t>INE237A01028</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>23774</t>
@@ -3920,22 +4148,25 @@
           <t>452.02</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>452.02</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -3952,12 +4183,12 @@
           <t>INE795G01014</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>62425</t>
@@ -3968,22 +4199,25 @@
           <t>398.3</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>398.3</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -4000,12 +4234,12 @@
           <t>INE765G01017</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>20923</t>
@@ -4016,22 +4250,25 @@
           <t>388.85</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>388.85</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -4048,12 +4285,12 @@
           <t>INE338I01027</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>54297</t>
@@ -4064,22 +4301,25 @@
           <t>345.95</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>345.95</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -4096,12 +4336,12 @@
           <t>INE121A01024</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>26228</t>
@@ -4112,22 +4352,25 @@
           <t>337.25</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>337.25</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -4144,12 +4387,12 @@
           <t>INE721A01047</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>59965</t>
@@ -4160,22 +4403,25 @@
           <t>326.06</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>326.06</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -4192,12 +4438,12 @@
           <t>INE466L01038</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>32016</t>
@@ -4208,22 +4454,25 @@
           <t>322.64</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>322.64</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -4240,12 +4489,12 @@
           <t>INE477A01020</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>32317</t>
@@ -4256,22 +4505,25 @@
           <t>215.78</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>215.78</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
@@ -4288,12 +4540,12 @@
           <t>INE674K01013</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>88042</t>
@@ -4304,22 +4556,25 @@
           <t>157.94</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>157.94</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EQUITY  EQUITY RELATED          </t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>EQUITY &amp; EQUITY RELATED   NAN nan nan nan nan 00 00 nan</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>HFSF</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>Helios Mutual Fund</t>
         </is>
